--- a/BackTest/2019-11-13 BackTest FZZ.xlsx
+++ b/BackTest/2019-11-13 BackTest FZZ.xlsx
@@ -451,20 +451,14 @@
         <v>6.955666666666668</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>7.14</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>6.962500000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>7.17</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>6.967500000000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>7.25</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>6.973666666666669</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>7.26</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>6.979166666666669</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>7.2</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>6.987666666666668</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>7.24</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>6.995000000000002</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>7.3</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>7.006666666666669</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>7.36</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>7.018166666666668</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>7.45</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>7.029000000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>7.040833333333336</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>7.47</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>7.050166666666669</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>7.49</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -950,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -989,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1028,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1067,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1106,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1145,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1184,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1223,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1262,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1301,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1340,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1379,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1418,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1457,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1496,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1535,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1574,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1613,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1652,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1691,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1730,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1769,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1808,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1847,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1886,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1925,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1964,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2003,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2042,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2081,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2120,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2159,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2198,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2237,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2276,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2315,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2354,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2393,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2432,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2471,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2510,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2549,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2588,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2627,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2666,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2705,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2744,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2783,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2822,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2861,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2900,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2939,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2978,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3017,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3056,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3095,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3134,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3173,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3212,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3251,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3290,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3329,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3368,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3403,15 +3079,11 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3446,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3485,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3520,15 +3184,11 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3559,15 +3219,11 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3598,15 +3254,11 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3641,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3676,16 +3324,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3713,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3748,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3783,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3818,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -17223,7 +16869,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
@@ -17258,7 +16904,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
@@ -17293,7 +16939,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
@@ -17678,7 +17324,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
@@ -17713,7 +17359,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
@@ -19040,14 +18686,20 @@
         <v>9.397333333333339</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
       </c>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>9.19</v>
+      </c>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19075,14 +18727,20 @@
         <v>9.39783333333334</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
       </c>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>9.07</v>
+      </c>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19110,14 +18768,20 @@
         <v>9.392166666666672</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
       </c>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>9.17</v>
+      </c>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19152,7 +18816,11 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19187,7 +18855,11 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19222,7 +18894,11 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19257,7 +18933,11 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19292,7 +18972,11 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19327,7 +19011,11 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19362,7 +19050,11 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19397,7 +19089,11 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19432,7 +19128,11 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19467,7 +19167,11 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19502,7 +19206,11 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19537,7 +19245,11 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19572,7 +19284,11 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19607,7 +19323,11 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19642,7 +19362,11 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19677,7 +19401,11 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19712,7 +19440,11 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -19747,7 +19479,11 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -19782,7 +19518,11 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -19817,7 +19557,11 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -19852,7 +19596,11 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -19887,7 +19635,11 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -19922,7 +19674,11 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -19957,7 +19713,11 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -19992,7 +19752,11 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20027,7 +19791,11 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20062,7 +19830,11 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20097,7 +19869,11 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20132,7 +19908,11 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20167,7 +19947,11 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20202,7 +19986,11 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20237,7 +20025,11 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20272,7 +20064,11 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20307,7 +20103,11 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20342,7 +20142,11 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20377,7 +20181,11 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20412,7 +20220,11 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20447,7 +20259,11 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20482,7 +20298,11 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20517,7 +20337,11 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20552,7 +20376,11 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20587,7 +20415,11 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20622,7 +20454,11 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20657,7 +20493,11 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -20692,7 +20532,11 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -20727,7 +20571,11 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -20762,7 +20610,11 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -20797,7 +20649,11 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -20832,7 +20688,11 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -20867,7 +20727,11 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -20902,7 +20766,11 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -20937,7 +20805,11 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -20972,7 +20844,11 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21007,7 +20883,11 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21042,7 +20922,11 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21077,7 +20961,11 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -21112,7 +21000,11 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21147,7 +21039,11 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21182,7 +21078,11 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -21217,7 +21117,11 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -21252,7 +21156,11 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -21287,7 +21195,11 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -21322,7 +21234,11 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -21357,7 +21273,11 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -21392,7 +21312,11 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -21427,7 +21351,11 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -21462,7 +21390,11 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -21497,7 +21429,11 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -21532,7 +21468,11 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -21567,7 +21507,11 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -21602,7 +21546,11 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -21637,7 +21585,11 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -21672,7 +21624,11 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -21707,7 +21663,11 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -21742,7 +21702,11 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -21777,7 +21741,11 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -21812,7 +21780,11 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -21847,7 +21819,11 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -21882,7 +21858,11 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -21917,7 +21897,11 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -21952,7 +21936,11 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -21987,7 +21975,11 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -22022,7 +22014,11 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -22057,7 +22053,11 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -22092,7 +22092,11 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -22127,7 +22131,11 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -22162,7 +22170,11 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -22197,7 +22209,11 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -22232,7 +22248,11 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -22267,7 +22287,11 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -22302,7 +22326,11 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -22337,7 +22365,11 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -22372,7 +22404,11 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -22407,7 +22443,11 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -22442,7 +22482,11 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -22477,7 +22521,11 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -22512,7 +22560,11 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -22547,7 +22599,11 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -22582,7 +22638,11 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -22617,7 +22677,11 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -22652,7 +22716,11 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -22687,7 +22755,11 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -22722,7 +22794,11 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -22757,7 +22833,11 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -22792,7 +22872,11 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -22827,7 +22911,11 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -22862,7 +22950,11 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -22897,7 +22989,11 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -22932,7 +23028,11 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -22967,7 +23067,11 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -23002,7 +23106,11 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -23037,7 +23145,11 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -23072,7 +23184,11 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -23107,7 +23223,11 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -23142,7 +23262,11 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -23177,7 +23301,11 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -23212,7 +23340,11 @@
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -23247,7 +23379,11 @@
       </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -23282,7 +23418,11 @@
       </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr"/>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -23317,7 +23457,11 @@
       </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr"/>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -23352,7 +23496,11 @@
       </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr"/>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -23387,7 +23535,11 @@
       </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr"/>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -23422,7 +23574,11 @@
       </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr"/>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -23457,7 +23613,11 @@
       </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -23492,7 +23652,11 @@
       </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr"/>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -23527,7 +23691,11 @@
       </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr"/>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -23562,7 +23730,11 @@
       </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr"/>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -23597,7 +23769,11 @@
       </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr"/>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -23632,7 +23808,11 @@
       </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr"/>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -23667,7 +23847,11 @@
       </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr"/>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -23702,7 +23886,11 @@
       </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr"/>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -23737,7 +23925,11 @@
       </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr"/>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -23772,7 +23964,11 @@
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr"/>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -23807,7 +24003,11 @@
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr"/>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -23842,7 +24042,11 @@
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr"/>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -23877,7 +24081,11 @@
       </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr"/>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -23912,7 +24120,11 @@
       </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr"/>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -23947,7 +24159,11 @@
       </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr"/>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -23982,7 +24198,11 @@
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr"/>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -24017,7 +24237,11 @@
       </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr"/>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -24052,7 +24276,11 @@
       </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr"/>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -24087,7 +24315,11 @@
       </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -24122,7 +24354,11 @@
       </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr"/>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -24157,7 +24393,11 @@
       </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr"/>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -24192,7 +24432,11 @@
       </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr"/>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -24227,7 +24471,11 @@
       </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr"/>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -24262,7 +24510,11 @@
       </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr"/>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -24297,7 +24549,11 @@
       </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr"/>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -24332,7 +24588,11 @@
       </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr"/>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -24367,7 +24627,11 @@
       </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr"/>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -24402,7 +24666,11 @@
       </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr"/>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -24437,7 +24705,11 @@
       </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr"/>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -24472,7 +24744,11 @@
       </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr"/>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -24507,7 +24783,11 @@
       </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr"/>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -24542,7 +24822,11 @@
       </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr"/>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -24577,7 +24861,11 @@
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr"/>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -24612,7 +24900,11 @@
       </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr"/>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -24647,7 +24939,11 @@
       </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -24682,7 +24978,11 @@
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -24717,7 +25017,11 @@
       </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr"/>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -24752,7 +25056,11 @@
       </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -24787,7 +25095,11 @@
       </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -24822,7 +25134,11 @@
       </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr"/>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -24857,7 +25173,11 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr"/>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -24892,7 +25212,11 @@
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -24927,7 +25251,11 @@
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -24962,7 +25290,11 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -24997,7 +25329,11 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -25032,7 +25368,11 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr"/>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -25067,7 +25407,11 @@
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr"/>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -25102,7 +25446,11 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr"/>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -25137,7 +25485,11 @@
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr"/>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -25172,7 +25524,11 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr"/>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -25207,7 +25563,11 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr"/>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -25242,7 +25602,11 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr"/>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -25277,7 +25641,11 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr"/>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -25312,7 +25680,11 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr"/>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -25347,7 +25719,11 @@
       </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr"/>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -25382,7 +25758,11 @@
       </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr"/>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -25417,7 +25797,11 @@
       </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr"/>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -25452,7 +25836,11 @@
       </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr"/>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -25487,7 +25875,11 @@
       </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr"/>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -25522,7 +25914,11 @@
       </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr"/>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -25557,7 +25953,11 @@
       </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr"/>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -25592,7 +25992,11 @@
       </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr"/>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -25627,7 +26031,11 @@
       </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr"/>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -25662,7 +26070,11 @@
       </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr"/>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -25697,7 +26109,11 @@
       </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr"/>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -25732,7 +26148,11 @@
       </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr"/>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -25767,7 +26187,11 @@
       </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr"/>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -25802,7 +26226,11 @@
       </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr"/>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -25837,7 +26265,11 @@
       </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr"/>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -25872,7 +26304,11 @@
       </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr"/>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -25907,7 +26343,11 @@
       </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr"/>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -25942,7 +26382,11 @@
       </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr"/>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -25977,7 +26421,11 @@
       </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr"/>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -26012,7 +26460,11 @@
       </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr"/>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -26047,7 +26499,11 @@
       </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr"/>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -26082,7 +26538,11 @@
       </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr"/>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -26117,7 +26577,11 @@
       </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr"/>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -26152,7 +26616,11 @@
       </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr"/>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -26187,7 +26655,11 @@
       </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr"/>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -26222,7 +26694,11 @@
       </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr"/>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -26257,7 +26733,11 @@
       </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr"/>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -26292,7 +26772,11 @@
       </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr"/>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -26327,7 +26811,11 @@
       </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr"/>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -26362,7 +26850,11 @@
       </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr"/>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -26397,7 +26889,11 @@
       </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr"/>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -26432,7 +26928,11 @@
       </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr"/>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -26467,7 +26967,11 @@
       </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr"/>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -26502,7 +27006,11 @@
       </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr"/>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -26537,7 +27045,11 @@
       </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr"/>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -26572,7 +27084,11 @@
       </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr"/>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -26607,7 +27123,11 @@
       </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr"/>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -26642,7 +27162,11 @@
       </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr"/>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -26677,7 +27201,11 @@
       </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr"/>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -26712,7 +27240,11 @@
       </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr"/>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -26747,7 +27279,11 @@
       </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr"/>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -26782,7 +27318,11 @@
       </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr"/>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -26817,7 +27357,11 @@
       </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr"/>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -26852,7 +27396,11 @@
       </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr"/>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -26887,7 +27435,11 @@
       </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr"/>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -26922,7 +27474,11 @@
       </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr"/>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -26957,7 +27513,11 @@
       </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr"/>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -26992,7 +27552,11 @@
       </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr"/>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -27027,7 +27591,11 @@
       </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr"/>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -27062,7 +27630,11 @@
       </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr"/>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -27097,7 +27669,11 @@
       </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr"/>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -27132,7 +27708,11 @@
       </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr"/>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -27167,7 +27747,11 @@
       </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr"/>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -27202,7 +27786,11 @@
       </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr"/>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -27237,7 +27825,11 @@
       </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr"/>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -27272,7 +27864,11 @@
       </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr"/>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -27307,7 +27903,11 @@
       </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr"/>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M759" t="n">
         <v>1</v>
       </c>
@@ -27342,7 +27942,11 @@
       </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr"/>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M760" t="n">
         <v>1</v>
       </c>
@@ -27377,7 +27981,11 @@
       </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr"/>
-      <c r="L761" t="inlineStr"/>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M761" t="n">
         <v>1</v>
       </c>
@@ -27412,7 +28020,11 @@
       </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr"/>
-      <c r="L762" t="inlineStr"/>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M762" t="n">
         <v>1</v>
       </c>
@@ -27447,7 +28059,11 @@
       </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr"/>
-      <c r="L763" t="inlineStr"/>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M763" t="n">
         <v>1</v>
       </c>
@@ -27482,7 +28098,11 @@
       </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr"/>
-      <c r="L764" t="inlineStr"/>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M764" t="n">
         <v>1</v>
       </c>
@@ -27517,7 +28137,11 @@
       </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr"/>
-      <c r="L765" t="inlineStr"/>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M765" t="n">
         <v>1</v>
       </c>
@@ -27552,7 +28176,11 @@
       </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr"/>
-      <c r="L766" t="inlineStr"/>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M766" t="n">
         <v>1</v>
       </c>
@@ -27587,7 +28215,11 @@
       </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr"/>
-      <c r="L767" t="inlineStr"/>
+      <c r="L767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M767" t="n">
         <v>1</v>
       </c>
@@ -27622,7 +28254,11 @@
       </c>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr"/>
-      <c r="L768" t="inlineStr"/>
+      <c r="L768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M768" t="n">
         <v>1</v>
       </c>
@@ -27657,7 +28293,11 @@
       </c>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr"/>
-      <c r="L769" t="inlineStr"/>
+      <c r="L769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M769" t="n">
         <v>1</v>
       </c>
@@ -27692,7 +28332,11 @@
       </c>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr"/>
-      <c r="L770" t="inlineStr"/>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M770" t="n">
         <v>1</v>
       </c>
@@ -27727,7 +28371,11 @@
       </c>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr"/>
-      <c r="L771" t="inlineStr"/>
+      <c r="L771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M771" t="n">
         <v>1</v>
       </c>
@@ -27762,7 +28410,11 @@
       </c>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr"/>
-      <c r="L772" t="inlineStr"/>
+      <c r="L772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M772" t="n">
         <v>1</v>
       </c>
@@ -27797,7 +28449,11 @@
       </c>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr"/>
-      <c r="L773" t="inlineStr"/>
+      <c r="L773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M773" t="n">
         <v>1</v>
       </c>
@@ -27832,7 +28488,11 @@
       </c>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr"/>
-      <c r="L774" t="inlineStr"/>
+      <c r="L774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M774" t="n">
         <v>1</v>
       </c>
@@ -27867,7 +28527,11 @@
       </c>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr"/>
-      <c r="L775" t="inlineStr"/>
+      <c r="L775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M775" t="n">
         <v>1</v>
       </c>
@@ -27902,7 +28566,11 @@
       </c>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr"/>
-      <c r="L776" t="inlineStr"/>
+      <c r="L776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M776" t="n">
         <v>1</v>
       </c>
@@ -27937,7 +28605,11 @@
       </c>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr"/>
-      <c r="L777" t="inlineStr"/>
+      <c r="L777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M777" t="n">
         <v>1</v>
       </c>
@@ -27972,7 +28644,11 @@
       </c>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr"/>
-      <c r="L778" t="inlineStr"/>
+      <c r="L778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M778" t="n">
         <v>1</v>
       </c>
@@ -28007,7 +28683,11 @@
       </c>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr"/>
-      <c r="L779" t="inlineStr"/>
+      <c r="L779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M779" t="n">
         <v>1</v>
       </c>
@@ -28042,7 +28722,11 @@
       </c>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr"/>
-      <c r="L780" t="inlineStr"/>
+      <c r="L780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M780" t="n">
         <v>1</v>
       </c>
@@ -28077,7 +28761,11 @@
       </c>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr"/>
-      <c r="L781" t="inlineStr"/>
+      <c r="L781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M781" t="n">
         <v>1</v>
       </c>
@@ -28112,7 +28800,11 @@
       </c>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr"/>
-      <c r="L782" t="inlineStr"/>
+      <c r="L782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M782" t="n">
         <v>1</v>
       </c>
@@ -28147,7 +28839,11 @@
       </c>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr"/>
-      <c r="L783" t="inlineStr"/>
+      <c r="L783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M783" t="n">
         <v>1</v>
       </c>
@@ -28182,7 +28878,11 @@
       </c>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr"/>
-      <c r="L784" t="inlineStr"/>
+      <c r="L784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M784" t="n">
         <v>1</v>
       </c>
@@ -28217,7 +28917,11 @@
       </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr"/>
-      <c r="L785" t="inlineStr"/>
+      <c r="L785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M785" t="n">
         <v>1</v>
       </c>
@@ -28252,7 +28956,11 @@
       </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr"/>
-      <c r="L786" t="inlineStr"/>
+      <c r="L786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M786" t="n">
         <v>1</v>
       </c>
@@ -28287,7 +28995,11 @@
       </c>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr"/>
-      <c r="L787" t="inlineStr"/>
+      <c r="L787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M787" t="n">
         <v>1</v>
       </c>
@@ -28322,7 +29034,11 @@
       </c>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr"/>
-      <c r="L788" t="inlineStr"/>
+      <c r="L788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M788" t="n">
         <v>1</v>
       </c>
@@ -28357,7 +29073,11 @@
       </c>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr"/>
-      <c r="L789" t="inlineStr"/>
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M789" t="n">
         <v>1</v>
       </c>
@@ -28392,7 +29112,11 @@
       </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr"/>
-      <c r="L790" t="inlineStr"/>
+      <c r="L790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M790" t="n">
         <v>1</v>
       </c>
@@ -28427,7 +29151,11 @@
       </c>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr"/>
-      <c r="L791" t="inlineStr"/>
+      <c r="L791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M791" t="n">
         <v>1</v>
       </c>
@@ -28462,7 +29190,11 @@
       </c>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr"/>
-      <c r="L792" t="inlineStr"/>
+      <c r="L792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M792" t="n">
         <v>1</v>
       </c>
@@ -28497,7 +29229,11 @@
       </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr"/>
-      <c r="L793" t="inlineStr"/>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M793" t="n">
         <v>1</v>
       </c>
@@ -28532,7 +29268,11 @@
       </c>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr"/>
-      <c r="L794" t="inlineStr"/>
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M794" t="n">
         <v>1</v>
       </c>
@@ -28567,7 +29307,11 @@
       </c>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr"/>
-      <c r="L795" t="inlineStr"/>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M795" t="n">
         <v>1</v>
       </c>
@@ -28602,7 +29346,11 @@
       </c>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr"/>
-      <c r="L796" t="inlineStr"/>
+      <c r="L796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M796" t="n">
         <v>1</v>
       </c>
@@ -28637,7 +29385,11 @@
       </c>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr"/>
-      <c r="L797" t="inlineStr"/>
+      <c r="L797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M797" t="n">
         <v>1</v>
       </c>
@@ -28672,7 +29424,11 @@
       </c>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr"/>
-      <c r="L798" t="inlineStr"/>
+      <c r="L798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M798" t="n">
         <v>1</v>
       </c>
@@ -28707,7 +29463,11 @@
       </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr"/>
-      <c r="L799" t="inlineStr"/>
+      <c r="L799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M799" t="n">
         <v>1</v>
       </c>
@@ -28742,7 +29502,11 @@
       </c>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr"/>
-      <c r="L800" t="inlineStr"/>
+      <c r="L800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M800" t="n">
         <v>1</v>
       </c>
@@ -28777,7 +29541,11 @@
       </c>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr"/>
-      <c r="L801" t="inlineStr"/>
+      <c r="L801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M801" t="n">
         <v>1</v>
       </c>
@@ -28812,7 +29580,11 @@
       </c>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr"/>
-      <c r="L802" t="inlineStr"/>
+      <c r="L802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M802" t="n">
         <v>1</v>
       </c>
@@ -28847,7 +29619,11 @@
       </c>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr"/>
-      <c r="L803" t="inlineStr"/>
+      <c r="L803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M803" t="n">
         <v>1</v>
       </c>
@@ -28882,7 +29658,11 @@
       </c>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr"/>
-      <c r="L804" t="inlineStr"/>
+      <c r="L804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M804" t="n">
         <v>1</v>
       </c>
@@ -28917,7 +29697,11 @@
       </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr"/>
-      <c r="L805" t="inlineStr"/>
+      <c r="L805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M805" t="n">
         <v>1</v>
       </c>
@@ -28952,7 +29736,11 @@
       </c>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr"/>
-      <c r="L806" t="inlineStr"/>
+      <c r="L806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M806" t="n">
         <v>1</v>
       </c>
@@ -28987,7 +29775,11 @@
       </c>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr"/>
-      <c r="L807" t="inlineStr"/>
+      <c r="L807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M807" t="n">
         <v>1</v>
       </c>
@@ -29022,7 +29814,11 @@
       </c>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr"/>
-      <c r="L808" t="inlineStr"/>
+      <c r="L808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M808" t="n">
         <v>1</v>
       </c>
@@ -29057,7 +29853,11 @@
       </c>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr"/>
-      <c r="L809" t="inlineStr"/>
+      <c r="L809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M809" t="n">
         <v>1</v>
       </c>
@@ -29092,7 +29892,11 @@
       </c>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr"/>
-      <c r="L810" t="inlineStr"/>
+      <c r="L810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M810" t="n">
         <v>1</v>
       </c>
@@ -29127,7 +29931,11 @@
       </c>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr"/>
-      <c r="L811" t="inlineStr"/>
+      <c r="L811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M811" t="n">
         <v>1</v>
       </c>
@@ -29162,7 +29970,11 @@
       </c>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr"/>
-      <c r="L812" t="inlineStr"/>
+      <c r="L812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M812" t="n">
         <v>1</v>
       </c>
@@ -29197,7 +30009,11 @@
       </c>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr"/>
-      <c r="L813" t="inlineStr"/>
+      <c r="L813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M813" t="n">
         <v>1</v>
       </c>
@@ -29232,7 +30048,11 @@
       </c>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr"/>
-      <c r="L814" t="inlineStr"/>
+      <c r="L814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M814" t="n">
         <v>1</v>
       </c>
@@ -29267,7 +30087,11 @@
       </c>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr"/>
-      <c r="L815" t="inlineStr"/>
+      <c r="L815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M815" t="n">
         <v>1</v>
       </c>
@@ -29302,7 +30126,11 @@
       </c>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr"/>
-      <c r="L816" t="inlineStr"/>
+      <c r="L816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M816" t="n">
         <v>1</v>
       </c>
@@ -29337,7 +30165,11 @@
       </c>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr"/>
-      <c r="L817" t="inlineStr"/>
+      <c r="L817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M817" t="n">
         <v>1</v>
       </c>
@@ -29372,7 +30204,11 @@
       </c>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr"/>
-      <c r="L818" t="inlineStr"/>
+      <c r="L818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M818" t="n">
         <v>1</v>
       </c>
@@ -29407,7 +30243,11 @@
       </c>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr"/>
-      <c r="L819" t="inlineStr"/>
+      <c r="L819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M819" t="n">
         <v>1</v>
       </c>
@@ -29442,7 +30282,11 @@
       </c>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr"/>
-      <c r="L820" t="inlineStr"/>
+      <c r="L820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M820" t="n">
         <v>1</v>
       </c>
@@ -29477,7 +30321,11 @@
       </c>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr"/>
-      <c r="L821" t="inlineStr"/>
+      <c r="L821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M821" t="n">
         <v>1</v>
       </c>
@@ -29512,7 +30360,11 @@
       </c>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr"/>
-      <c r="L822" t="inlineStr"/>
+      <c r="L822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M822" t="n">
         <v>1</v>
       </c>
@@ -29547,7 +30399,11 @@
       </c>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr"/>
-      <c r="L823" t="inlineStr"/>
+      <c r="L823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M823" t="n">
         <v>1</v>
       </c>
@@ -29582,7 +30438,11 @@
       </c>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr"/>
-      <c r="L824" t="inlineStr"/>
+      <c r="L824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M824" t="n">
         <v>1</v>
       </c>
@@ -29617,7 +30477,11 @@
       </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr"/>
-      <c r="L825" t="inlineStr"/>
+      <c r="L825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M825" t="n">
         <v>1</v>
       </c>
@@ -29652,7 +30516,11 @@
       </c>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr"/>
-      <c r="L826" t="inlineStr"/>
+      <c r="L826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M826" t="n">
         <v>1</v>
       </c>
@@ -29687,7 +30555,11 @@
       </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr"/>
-      <c r="L827" t="inlineStr"/>
+      <c r="L827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M827" t="n">
         <v>1</v>
       </c>
@@ -29722,7 +30594,11 @@
       </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr"/>
-      <c r="L828" t="inlineStr"/>
+      <c r="L828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M828" t="n">
         <v>1</v>
       </c>
@@ -29757,7 +30633,11 @@
       </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr"/>
-      <c r="L829" t="inlineStr"/>
+      <c r="L829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M829" t="n">
         <v>1</v>
       </c>
@@ -29792,7 +30672,11 @@
       </c>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr"/>
-      <c r="L830" t="inlineStr"/>
+      <c r="L830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M830" t="n">
         <v>1</v>
       </c>
@@ -29827,7 +30711,11 @@
       </c>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr"/>
-      <c r="L831" t="inlineStr"/>
+      <c r="L831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M831" t="n">
         <v>1</v>
       </c>
@@ -29862,7 +30750,11 @@
       </c>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr"/>
-      <c r="L832" t="inlineStr"/>
+      <c r="L832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M832" t="n">
         <v>1</v>
       </c>
@@ -29897,7 +30789,11 @@
       </c>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr"/>
-      <c r="L833" t="inlineStr"/>
+      <c r="L833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M833" t="n">
         <v>1</v>
       </c>
@@ -29932,7 +30828,11 @@
       </c>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr"/>
-      <c r="L834" t="inlineStr"/>
+      <c r="L834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M834" t="n">
         <v>1</v>
       </c>
@@ -29967,7 +30867,11 @@
       </c>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr"/>
-      <c r="L835" t="inlineStr"/>
+      <c r="L835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M835" t="n">
         <v>1</v>
       </c>
@@ -30002,7 +30906,11 @@
       </c>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr"/>
-      <c r="L836" t="inlineStr"/>
+      <c r="L836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M836" t="n">
         <v>1</v>
       </c>
@@ -30037,7 +30945,11 @@
       </c>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr"/>
-      <c r="L837" t="inlineStr"/>
+      <c r="L837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M837" t="n">
         <v>1</v>
       </c>
@@ -30072,7 +30984,11 @@
       </c>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr"/>
-      <c r="L838" t="inlineStr"/>
+      <c r="L838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M838" t="n">
         <v>1</v>
       </c>
@@ -30107,7 +31023,11 @@
       </c>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr"/>
-      <c r="L839" t="inlineStr"/>
+      <c r="L839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M839" t="n">
         <v>1</v>
       </c>
@@ -30142,7 +31062,11 @@
       </c>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr"/>
-      <c r="L840" t="inlineStr"/>
+      <c r="L840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M840" t="n">
         <v>1</v>
       </c>
@@ -30177,7 +31101,11 @@
       </c>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr"/>
-      <c r="L841" t="inlineStr"/>
+      <c r="L841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M841" t="n">
         <v>1</v>
       </c>
@@ -30212,7 +31140,11 @@
       </c>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr"/>
-      <c r="L842" t="inlineStr"/>
+      <c r="L842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M842" t="n">
         <v>1</v>
       </c>
@@ -30247,7 +31179,11 @@
       </c>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr"/>
-      <c r="L843" t="inlineStr"/>
+      <c r="L843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M843" t="n">
         <v>1</v>
       </c>
@@ -30282,7 +31218,11 @@
       </c>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr"/>
-      <c r="L844" t="inlineStr"/>
+      <c r="L844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M844" t="n">
         <v>1</v>
       </c>
@@ -30317,7 +31257,11 @@
       </c>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr"/>
-      <c r="L845" t="inlineStr"/>
+      <c r="L845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M845" t="n">
         <v>1</v>
       </c>
@@ -30352,7 +31296,11 @@
       </c>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr"/>
-      <c r="L846" t="inlineStr"/>
+      <c r="L846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M846" t="n">
         <v>1</v>
       </c>
@@ -30387,7 +31335,11 @@
       </c>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr"/>
-      <c r="L847" t="inlineStr"/>
+      <c r="L847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M847" t="n">
         <v>1</v>
       </c>
@@ -30422,7 +31374,11 @@
       </c>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr"/>
-      <c r="L848" t="inlineStr"/>
+      <c r="L848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M848" t="n">
         <v>1</v>
       </c>
@@ -30457,7 +31413,11 @@
       </c>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr"/>
-      <c r="L849" t="inlineStr"/>
+      <c r="L849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M849" t="n">
         <v>1</v>
       </c>
@@ -30492,7 +31452,11 @@
       </c>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr"/>
-      <c r="L850" t="inlineStr"/>
+      <c r="L850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M850" t="n">
         <v>1</v>
       </c>
@@ -30527,7 +31491,11 @@
       </c>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr"/>
-      <c r="L851" t="inlineStr"/>
+      <c r="L851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M851" t="n">
         <v>1</v>
       </c>
@@ -30562,7 +31530,11 @@
       </c>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr"/>
-      <c r="L852" t="inlineStr"/>
+      <c r="L852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M852" t="n">
         <v>1</v>
       </c>
@@ -30597,7 +31569,11 @@
       </c>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr"/>
-      <c r="L853" t="inlineStr"/>
+      <c r="L853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M853" t="n">
         <v>1</v>
       </c>
@@ -30632,7 +31608,11 @@
       </c>
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr"/>
-      <c r="L854" t="inlineStr"/>
+      <c r="L854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M854" t="n">
         <v>1</v>
       </c>
@@ -30667,7 +31647,11 @@
       </c>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr"/>
-      <c r="L855" t="inlineStr"/>
+      <c r="L855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M855" t="n">
         <v>1</v>
       </c>
@@ -30702,7 +31686,11 @@
       </c>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr"/>
-      <c r="L856" t="inlineStr"/>
+      <c r="L856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M856" t="n">
         <v>1</v>
       </c>
@@ -30737,7 +31725,11 @@
       </c>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr"/>
-      <c r="L857" t="inlineStr"/>
+      <c r="L857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M857" t="n">
         <v>1</v>
       </c>
@@ -30772,7 +31764,11 @@
       </c>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr"/>
-      <c r="L858" t="inlineStr"/>
+      <c r="L858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M858" t="n">
         <v>1</v>
       </c>
@@ -30807,7 +31803,11 @@
       </c>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr"/>
-      <c r="L859" t="inlineStr"/>
+      <c r="L859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M859" t="n">
         <v>1</v>
       </c>
@@ -30842,7 +31842,11 @@
       </c>
       <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr"/>
-      <c r="L860" t="inlineStr"/>
+      <c r="L860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M860" t="n">
         <v>1</v>
       </c>
@@ -30877,7 +31881,11 @@
       </c>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr"/>
-      <c r="L861" t="inlineStr"/>
+      <c r="L861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M861" t="n">
         <v>1</v>
       </c>
@@ -30912,7 +31920,11 @@
       </c>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr"/>
-      <c r="L862" t="inlineStr"/>
+      <c r="L862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M862" t="n">
         <v>1</v>
       </c>
@@ -30947,7 +31959,11 @@
       </c>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr"/>
-      <c r="L863" t="inlineStr"/>
+      <c r="L863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M863" t="n">
         <v>1</v>
       </c>
@@ -30982,7 +31998,11 @@
       </c>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr"/>
-      <c r="L864" t="inlineStr"/>
+      <c r="L864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M864" t="n">
         <v>1</v>
       </c>
@@ -31017,7 +32037,11 @@
       </c>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr"/>
-      <c r="L865" t="inlineStr"/>
+      <c r="L865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M865" t="n">
         <v>1</v>
       </c>
@@ -31052,7 +32076,11 @@
       </c>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr"/>
-      <c r="L866" t="inlineStr"/>
+      <c r="L866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M866" t="n">
         <v>1</v>
       </c>
@@ -31087,7 +32115,11 @@
       </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr"/>
-      <c r="L867" t="inlineStr"/>
+      <c r="L867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M867" t="n">
         <v>1</v>
       </c>
@@ -31122,7 +32154,11 @@
       </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr"/>
-      <c r="L868" t="inlineStr"/>
+      <c r="L868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M868" t="n">
         <v>1</v>
       </c>
@@ -31157,7 +32193,11 @@
       </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr"/>
-      <c r="L869" t="inlineStr"/>
+      <c r="L869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M869" t="n">
         <v>1</v>
       </c>
@@ -31192,7 +32232,11 @@
       </c>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr"/>
-      <c r="L870" t="inlineStr"/>
+      <c r="L870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M870" t="n">
         <v>1</v>
       </c>
@@ -31227,7 +32271,11 @@
       </c>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr"/>
-      <c r="L871" t="inlineStr"/>
+      <c r="L871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M871" t="n">
         <v>1</v>
       </c>
@@ -31262,7 +32310,11 @@
       </c>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr"/>
-      <c r="L872" t="inlineStr"/>
+      <c r="L872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M872" t="n">
         <v>1</v>
       </c>
@@ -31297,7 +32349,11 @@
       </c>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr"/>
-      <c r="L873" t="inlineStr"/>
+      <c r="L873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M873" t="n">
         <v>1</v>
       </c>
@@ -31332,7 +32388,11 @@
       </c>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr"/>
-      <c r="L874" t="inlineStr"/>
+      <c r="L874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M874" t="n">
         <v>1</v>
       </c>
@@ -31367,7 +32427,11 @@
       </c>
       <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr"/>
-      <c r="L875" t="inlineStr"/>
+      <c r="L875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M875" t="n">
         <v>1</v>
       </c>
@@ -31402,7 +32466,11 @@
       </c>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr"/>
-      <c r="L876" t="inlineStr"/>
+      <c r="L876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M876" t="n">
         <v>1</v>
       </c>
@@ -31437,7 +32505,11 @@
       </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr"/>
-      <c r="L877" t="inlineStr"/>
+      <c r="L877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M877" t="n">
         <v>1</v>
       </c>
@@ -31472,7 +32544,11 @@
       </c>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr"/>
-      <c r="L878" t="inlineStr"/>
+      <c r="L878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M878" t="n">
         <v>1</v>
       </c>
@@ -31507,7 +32583,11 @@
       </c>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr"/>
-      <c r="L879" t="inlineStr"/>
+      <c r="L879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M879" t="n">
         <v>1</v>
       </c>
@@ -31542,7 +32622,11 @@
       </c>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr"/>
-      <c r="L880" t="inlineStr"/>
+      <c r="L880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M880" t="n">
         <v>1</v>
       </c>
@@ -31577,7 +32661,11 @@
       </c>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr"/>
-      <c r="L881" t="inlineStr"/>
+      <c r="L881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M881" t="n">
         <v>1</v>
       </c>
@@ -31612,7 +32700,11 @@
       </c>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr"/>
-      <c r="L882" t="inlineStr"/>
+      <c r="L882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M882" t="n">
         <v>1</v>
       </c>
@@ -31647,7 +32739,11 @@
       </c>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr"/>
-      <c r="L883" t="inlineStr"/>
+      <c r="L883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M883" t="n">
         <v>1</v>
       </c>
@@ -31682,7 +32778,11 @@
       </c>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr"/>
-      <c r="L884" t="inlineStr"/>
+      <c r="L884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M884" t="n">
         <v>1</v>
       </c>
@@ -31717,7 +32817,11 @@
       </c>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr"/>
-      <c r="L885" t="inlineStr"/>
+      <c r="L885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M885" t="n">
         <v>1</v>
       </c>
@@ -31752,7 +32856,11 @@
       </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr"/>
-      <c r="L886" t="inlineStr"/>
+      <c r="L886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M886" t="n">
         <v>1</v>
       </c>
@@ -31787,7 +32895,11 @@
       </c>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr"/>
-      <c r="L887" t="inlineStr"/>
+      <c r="L887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M887" t="n">
         <v>1</v>
       </c>
@@ -31822,7 +32934,11 @@
       </c>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr"/>
-      <c r="L888" t="inlineStr"/>
+      <c r="L888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M888" t="n">
         <v>1</v>
       </c>
@@ -31857,7 +32973,11 @@
       </c>
       <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr"/>
-      <c r="L889" t="inlineStr"/>
+      <c r="L889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M889" t="n">
         <v>1</v>
       </c>
@@ -31892,7 +33012,11 @@
       </c>
       <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr"/>
-      <c r="L890" t="inlineStr"/>
+      <c r="L890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M890" t="n">
         <v>1</v>
       </c>
@@ -31927,7 +33051,11 @@
       </c>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr"/>
-      <c r="L891" t="inlineStr"/>
+      <c r="L891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M891" t="n">
         <v>1</v>
       </c>
@@ -31962,7 +33090,11 @@
       </c>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr"/>
-      <c r="L892" t="inlineStr"/>
+      <c r="L892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M892" t="n">
         <v>1</v>
       </c>
@@ -31997,7 +33129,11 @@
       </c>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr"/>
-      <c r="L893" t="inlineStr"/>
+      <c r="L893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M893" t="n">
         <v>1</v>
       </c>
@@ -32032,7 +33168,11 @@
       </c>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr"/>
-      <c r="L894" t="inlineStr"/>
+      <c r="L894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M894" t="n">
         <v>1</v>
       </c>
@@ -32067,7 +33207,11 @@
       </c>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr"/>
-      <c r="L895" t="inlineStr"/>
+      <c r="L895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M895" t="n">
         <v>1</v>
       </c>
@@ -32102,7 +33246,11 @@
       </c>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr"/>
-      <c r="L896" t="inlineStr"/>
+      <c r="L896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M896" t="n">
         <v>1</v>
       </c>
@@ -32137,7 +33285,11 @@
       </c>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr"/>
-      <c r="L897" t="inlineStr"/>
+      <c r="L897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M897" t="n">
         <v>1</v>
       </c>
@@ -32172,7 +33324,11 @@
       </c>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr"/>
-      <c r="L898" t="inlineStr"/>
+      <c r="L898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M898" t="n">
         <v>1</v>
       </c>
@@ -32207,7 +33363,11 @@
       </c>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr"/>
-      <c r="L899" t="inlineStr"/>
+      <c r="L899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M899" t="n">
         <v>1</v>
       </c>
@@ -32242,7 +33402,11 @@
       </c>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr"/>
-      <c r="L900" t="inlineStr"/>
+      <c r="L900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M900" t="n">
         <v>1</v>
       </c>
@@ -32277,7 +33441,11 @@
       </c>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr"/>
-      <c r="L901" t="inlineStr"/>
+      <c r="L901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M901" t="n">
         <v>1</v>
       </c>
@@ -32312,7 +33480,11 @@
       </c>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr"/>
-      <c r="L902" t="inlineStr"/>
+      <c r="L902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M902" t="n">
         <v>1</v>
       </c>
@@ -32347,7 +33519,11 @@
       </c>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr"/>
-      <c r="L903" t="inlineStr"/>
+      <c r="L903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M903" t="n">
         <v>1</v>
       </c>
@@ -32382,7 +33558,11 @@
       </c>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr"/>
-      <c r="L904" t="inlineStr"/>
+      <c r="L904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M904" t="n">
         <v>1</v>
       </c>
@@ -32417,7 +33597,11 @@
       </c>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr"/>
-      <c r="L905" t="inlineStr"/>
+      <c r="L905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M905" t="n">
         <v>1</v>
       </c>
@@ -32452,7 +33636,11 @@
       </c>
       <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr"/>
-      <c r="L906" t="inlineStr"/>
+      <c r="L906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M906" t="n">
         <v>1</v>
       </c>
@@ -32487,7 +33675,11 @@
       </c>
       <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr"/>
-      <c r="L907" t="inlineStr"/>
+      <c r="L907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M907" t="n">
         <v>1</v>
       </c>
@@ -32522,7 +33714,11 @@
       </c>
       <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr"/>
-      <c r="L908" t="inlineStr"/>
+      <c r="L908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M908" t="n">
         <v>1</v>
       </c>
@@ -32557,7 +33753,11 @@
       </c>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr"/>
-      <c r="L909" t="inlineStr"/>
+      <c r="L909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M909" t="n">
         <v>1</v>
       </c>
@@ -32592,7 +33792,11 @@
       </c>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr"/>
-      <c r="L910" t="inlineStr"/>
+      <c r="L910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M910" t="n">
         <v>1</v>
       </c>
@@ -32627,7 +33831,11 @@
       </c>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr"/>
-      <c r="L911" t="inlineStr"/>
+      <c r="L911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M911" t="n">
         <v>1</v>
       </c>
@@ -32662,7 +33870,11 @@
       </c>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr"/>
-      <c r="L912" t="inlineStr"/>
+      <c r="L912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M912" t="n">
         <v>1</v>
       </c>
@@ -32697,7 +33909,11 @@
       </c>
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr"/>
-      <c r="L913" t="inlineStr"/>
+      <c r="L913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M913" t="n">
         <v>1</v>
       </c>
@@ -32732,7 +33948,11 @@
       </c>
       <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr"/>
-      <c r="L914" t="inlineStr"/>
+      <c r="L914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M914" t="n">
         <v>1</v>
       </c>
@@ -32767,7 +33987,11 @@
       </c>
       <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr"/>
-      <c r="L915" t="inlineStr"/>
+      <c r="L915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M915" t="n">
         <v>1</v>
       </c>
@@ -32802,7 +34026,11 @@
       </c>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr"/>
-      <c r="L916" t="inlineStr"/>
+      <c r="L916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M916" t="n">
         <v>1</v>
       </c>
@@ -32837,7 +34065,11 @@
       </c>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr"/>
-      <c r="L917" t="inlineStr"/>
+      <c r="L917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M917" t="n">
         <v>1</v>
       </c>
@@ -32872,7 +34104,11 @@
       </c>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr"/>
-      <c r="L918" t="inlineStr"/>
+      <c r="L918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M918" t="n">
         <v>1</v>
       </c>
@@ -32907,7 +34143,11 @@
       </c>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr"/>
-      <c r="L919" t="inlineStr"/>
+      <c r="L919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M919" t="n">
         <v>1</v>
       </c>
@@ -32942,7 +34182,11 @@
       </c>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr"/>
-      <c r="L920" t="inlineStr"/>
+      <c r="L920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M920" t="n">
         <v>1</v>
       </c>
@@ -32977,7 +34221,11 @@
       </c>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr"/>
-      <c r="L921" t="inlineStr"/>
+      <c r="L921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M921" t="n">
         <v>1</v>
       </c>
@@ -33012,7 +34260,11 @@
       </c>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr"/>
-      <c r="L922" t="inlineStr"/>
+      <c r="L922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M922" t="n">
         <v>1</v>
       </c>
@@ -33047,7 +34299,11 @@
       </c>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr"/>
-      <c r="L923" t="inlineStr"/>
+      <c r="L923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M923" t="n">
         <v>1</v>
       </c>
@@ -33082,7 +34338,11 @@
       </c>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr"/>
-      <c r="L924" t="inlineStr"/>
+      <c r="L924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M924" t="n">
         <v>1</v>
       </c>
@@ -33117,7 +34377,11 @@
       </c>
       <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr"/>
-      <c r="L925" t="inlineStr"/>
+      <c r="L925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M925" t="n">
         <v>1</v>
       </c>
@@ -33152,7 +34416,11 @@
       </c>
       <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr"/>
-      <c r="L926" t="inlineStr"/>
+      <c r="L926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M926" t="n">
         <v>1</v>
       </c>
@@ -33187,7 +34455,11 @@
       </c>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr"/>
-      <c r="L927" t="inlineStr"/>
+      <c r="L927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M927" t="n">
         <v>1</v>
       </c>
@@ -33222,7 +34494,11 @@
       </c>
       <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr"/>
-      <c r="L928" t="inlineStr"/>
+      <c r="L928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M928" t="n">
         <v>1</v>
       </c>
@@ -33257,7 +34533,11 @@
       </c>
       <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr"/>
-      <c r="L929" t="inlineStr"/>
+      <c r="L929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M929" t="n">
         <v>1</v>
       </c>
@@ -33292,7 +34572,11 @@
       </c>
       <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr"/>
-      <c r="L930" t="inlineStr"/>
+      <c r="L930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M930" t="n">
         <v>1</v>
       </c>
@@ -33327,7 +34611,11 @@
       </c>
       <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr"/>
-      <c r="L931" t="inlineStr"/>
+      <c r="L931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M931" t="n">
         <v>1</v>
       </c>
@@ -33358,14 +34646,16 @@
         <v>0</v>
       </c>
       <c r="I932" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr"/>
-      <c r="L932" t="inlineStr"/>
-      <c r="M932" t="n">
-        <v>1</v>
-      </c>
+      <c r="L932" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M932" t="inlineStr"/>
     </row>
     <row r="933">
       <c r="A933" s="1" t="n">
@@ -33393,7 +34683,7 @@
         <v>0</v>
       </c>
       <c r="I933" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr"/>
@@ -33568,7 +34858,7 @@
         <v>0</v>
       </c>
       <c r="I938" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr"/>
@@ -33603,7 +34893,7 @@
         <v>0</v>
       </c>
       <c r="I939" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr"/>
@@ -33638,7 +34928,7 @@
         <v>0</v>
       </c>
       <c r="I940" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr"/>

--- a/BackTest/2019-11-13 BackTest FZZ.xlsx
+++ b/BackTest/2019-11-13 BackTest FZZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2770537.609586977</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2830574.141686977</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>6.84</v>
@@ -521,7 +521,7 @@
         <v>2828790.766686977</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>6.95</v>
@@ -562,7 +562,7 @@
         <v>2829364.665086977</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>6.83</v>
@@ -603,7 +603,7 @@
         <v>2819167.400886977</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>6.92</v>
@@ -644,7 +644,7 @@
         <v>3269734.373786977</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>6.79</v>
@@ -685,7 +685,7 @@
         <v>2881661.319086976</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>6.92</v>
@@ -726,7 +726,7 @@
         <v>2882181.696086976</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>6.75</v>
@@ -767,7 +767,7 @@
         <v>2939886.255886976</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>6.81</v>
@@ -808,7 +808,7 @@
         <v>2937963.655886976</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>6.82</v>
@@ -849,7 +849,7 @@
         <v>2938326.005886976</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>6.78</v>
@@ -890,7 +890,7 @@
         <v>2932210.005886976</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>6.93</v>
@@ -931,7 +931,7 @@
         <v>2886094.543686976</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>6.85</v>
@@ -972,7 +972,7 @@
         <v>2887169.543686976</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>6.75</v>
@@ -1013,7 +1013,7 @@
         <v>2887169.543686976</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>6.9</v>
@@ -1054,7 +1054,7 @@
         <v>2887063.221886976</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>6.9</v>
@@ -1095,7 +1095,7 @@
         <v>2913008.098886976</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>6.81</v>
@@ -1136,7 +1136,7 @@
         <v>2912928.357486976</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>6.9</v>
@@ -1177,7 +1177,7 @@
         <v>2917830.248686976</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>6.79</v>
@@ -1218,7 +1218,7 @@
         <v>2932123.874486976</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>6.81</v>
@@ -1259,7 +1259,7 @@
         <v>2932123.874486976</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>6.84</v>
@@ -1300,7 +1300,7 @@
         <v>2929985.575286976</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>6.84</v>
@@ -1341,7 +1341,7 @@
         <v>2929985.575286976</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>6.83</v>
@@ -1382,7 +1382,7 @@
         <v>2930411.252886976</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>6.83</v>
@@ -1423,7 +1423,7 @@
         <v>2927866.190186976</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>6.87</v>
@@ -1464,7 +1464,7 @@
         <v>3254715.469886976</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>6.83</v>
@@ -1505,7 +1505,7 @@
         <v>3259348.517886976</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>6.9</v>
@@ -1546,7 +1546,7 @@
         <v>3612573.596286976</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>6.94</v>
@@ -1587,7 +1587,7 @@
         <v>3931959.964286976</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>6.98</v>
@@ -1628,7 +1628,7 @@
         <v>3890534.319538953</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>7.15</v>
@@ -1669,7 +1669,7 @@
         <v>3996423.986938953</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>7.08</v>
@@ -1710,7 +1710,7 @@
         <v>3908309.675141898</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>7.12</v>
@@ -1751,7 +1751,7 @@
         <v>3957888.192541898</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>6.93</v>
@@ -1792,9 +1792,11 @@
         <v>3371750.595041898</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7.12</v>
+      </c>
       <c r="J35" t="n">
         <v>6.84</v>
       </c>
@@ -1831,7 +1833,7 @@
         <v>3329011.835441898</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>7.11</v>
@@ -1872,7 +1874,7 @@
         <v>3329110.835441898</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>6.99</v>
@@ -1913,7 +1915,7 @@
         <v>3282886.880341898</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>7.1</v>
@@ -1954,7 +1956,7 @@
         <v>3282986.880341898</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>7.03</v>
@@ -1995,7 +1997,7 @@
         <v>3558403.757541898</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>7.1</v>
@@ -2036,7 +2038,7 @@
         <v>3556730.988041898</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>7.12</v>
@@ -2077,7 +2079,7 @@
         <v>3556730.988041898</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>7.04</v>
@@ -2118,7 +2120,7 @@
         <v>3556942.472441898</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>7.04</v>
@@ -2159,9 +2161,11 @@
         <v>3558262.005941898</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>7.06</v>
+      </c>
       <c r="J44" t="n">
         <v>6.84</v>
       </c>
@@ -2198,9 +2202,11 @@
         <v>3273571.925441898</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>7.12</v>
+      </c>
       <c r="J45" t="n">
         <v>6.84</v>
       </c>
@@ -2237,9 +2243,11 @@
         <v>3278305.710541898</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6.96</v>
+      </c>
       <c r="J46" t="n">
         <v>6.84</v>
       </c>
@@ -2276,9 +2284,11 @@
         <v>3287592.493750887</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6.97</v>
+      </c>
       <c r="J47" t="n">
         <v>6.84</v>
       </c>
@@ -2315,9 +2325,11 @@
         <v>2828161.977350886</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7.12</v>
+      </c>
       <c r="J48" t="n">
         <v>6.84</v>
       </c>
@@ -2354,9 +2366,11 @@
         <v>2828161.977350886</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>6.95</v>
+      </c>
       <c r="J49" t="n">
         <v>6.84</v>
       </c>
@@ -2393,7 +2407,7 @@
         <v>2828233.977350886</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>6.95</v>
@@ -2434,9 +2448,11 @@
         <v>2821851.983950886</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>6.99</v>
+      </c>
       <c r="J51" t="n">
         <v>6.84</v>
       </c>
@@ -2473,9 +2489,11 @@
         <v>2821926.983950886</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>6.8</v>
+      </c>
       <c r="J52" t="n">
         <v>6.84</v>
       </c>
@@ -2512,9 +2530,11 @@
         <v>2263059.223350886</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>7.06</v>
+      </c>
       <c r="J53" t="n">
         <v>6.84</v>
       </c>
@@ -2551,9 +2571,11 @@
         <v>2321956.261650886</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>6.82</v>
+      </c>
       <c r="J54" t="n">
         <v>6.84</v>
       </c>
@@ -2590,7 +2612,7 @@
         <v>2322026.761650886</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>6.93</v>
@@ -2631,9 +2653,11 @@
         <v>2136572.459250886</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>7.1</v>
+      </c>
       <c r="J56" t="n">
         <v>6.84</v>
       </c>
@@ -2670,9 +2694,11 @@
         <v>2399391.000550887</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>6.95</v>
+      </c>
       <c r="J57" t="n">
         <v>6.84</v>
       </c>
@@ -2709,9 +2735,11 @@
         <v>2477948.330050887</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>7.09</v>
+      </c>
       <c r="J58" t="n">
         <v>6.84</v>
       </c>
@@ -2748,7 +2776,7 @@
         <v>2843370.008950887</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>7.1</v>
@@ -2789,9 +2817,11 @@
         <v>2941291.961950887</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7.13</v>
+      </c>
       <c r="J60" t="n">
         <v>6.84</v>
       </c>
@@ -2828,9 +2858,11 @@
         <v>5468842.174796822</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7.15</v>
+      </c>
       <c r="J61" t="n">
         <v>6.84</v>
       </c>
@@ -2867,9 +2899,11 @@
         <v>5468842.174796822</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7.25</v>
+      </c>
       <c r="J62" t="n">
         <v>6.84</v>
       </c>
@@ -2906,9 +2940,11 @@
         <v>5468842.174796822</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>7.25</v>
+      </c>
       <c r="J63" t="n">
         <v>6.84</v>
       </c>
@@ -2945,9 +2981,11 @@
         <v>5356124.986796821</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>7.25</v>
+      </c>
       <c r="J64" t="n">
         <v>6.84</v>
       </c>
@@ -2984,9 +3022,11 @@
         <v>5499556.720396821</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>7.2</v>
+      </c>
       <c r="J65" t="n">
         <v>6.84</v>
       </c>
@@ -3023,9 +3063,11 @@
         <v>6310591.494396822</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>7.25</v>
+      </c>
       <c r="J66" t="n">
         <v>6.84</v>
       </c>
@@ -3062,9 +3104,11 @@
         <v>9511544.083829161</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>7.3</v>
+      </c>
       <c r="J67" t="n">
         <v>6.84</v>
       </c>
@@ -3257,9 +3301,11 @@
         <v>12856424.70113253</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>7.49</v>
+      </c>
       <c r="J72" t="n">
         <v>6.84</v>
       </c>
@@ -3296,9 +3342,11 @@
         <v>13377191.27123253</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>7.49</v>
+      </c>
       <c r="J73" t="n">
         <v>6.84</v>
       </c>
@@ -3335,9 +3383,11 @@
         <v>13570666.25408022</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>7.52</v>
+      </c>
       <c r="J74" t="n">
         <v>6.84</v>
       </c>
@@ -6104,7 +6154,7 @@
         <v>32681330.36780908</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
@@ -6143,7 +6193,7 @@
         <v>32472492.35380908</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
@@ -6182,7 +6232,7 @@
         <v>30605905.57860908</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
@@ -6377,7 +6427,7 @@
         <v>31578338.80538793</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
@@ -8405,7 +8455,7 @@
         <v>32674764.85917278</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
@@ -8413,15 +8463,13 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L204" t="n">
-        <v>1.309327485380117</v>
-      </c>
-      <c r="M204" t="n">
-        <v>1.025073746312684</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8449,8 +8497,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8482,8 +8536,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8515,8 +8575,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8548,8 +8614,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8581,8 +8653,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8614,8 +8692,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8647,8 +8731,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8677,11 +8767,17 @@
         <v>33173139.01557278</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8710,11 +8806,17 @@
         <v>33289020.54167278</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8746,8 +8848,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8779,8 +8887,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8812,8 +8926,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8845,8 +8965,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8878,8 +9004,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8911,8 +9043,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8944,8 +9082,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8977,8 +9121,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9010,8 +9160,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9043,8 +9199,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9076,8 +9238,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9109,8 +9277,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9142,8 +9316,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9175,8 +9355,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9208,8 +9394,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9241,8 +9433,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9274,8 +9472,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9307,8 +9511,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9340,8 +9550,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9373,8 +9589,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9406,8 +9628,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9439,8 +9667,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9472,8 +9706,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9505,8 +9745,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9538,8 +9784,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9571,8 +9823,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9604,8 +9862,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9637,8 +9901,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9670,8 +9940,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9703,8 +9979,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9736,8 +10018,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9769,8 +10057,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9802,8 +10096,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9835,8 +10135,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9868,8 +10174,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9901,8 +10213,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9934,8 +10252,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9967,8 +10291,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10000,8 +10330,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10033,8 +10369,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10066,8 +10408,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10099,8 +10447,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10132,8 +10486,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10165,8 +10525,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10198,8 +10564,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10231,8 +10603,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10264,8 +10642,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10297,8 +10681,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10330,8 +10720,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10363,8 +10759,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10396,8 +10798,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10429,8 +10837,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10462,8 +10876,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10495,8 +10915,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10528,8 +10954,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10561,8 +10993,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10594,8 +11032,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10627,8 +11071,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10660,8 +11110,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10693,8 +11149,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10726,8 +11188,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10759,8 +11227,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10792,8 +11266,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10822,11 +11302,17 @@
         <v>34019742.27743995</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10858,8 +11344,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10888,11 +11380,17 @@
         <v>34019742.27743995</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10924,8 +11422,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10957,8 +11461,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10990,8 +11500,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11023,8 +11539,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11053,11 +11575,17 @@
         <v>34021522.87733995</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11086,11 +11614,17 @@
         <v>34021522.87733995</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11122,8 +11656,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11152,11 +11692,17 @@
         <v>34018488.39243995</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11188,8 +11734,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11221,8 +11773,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11254,8 +11812,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11287,8 +11851,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11320,8 +11890,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11353,8 +11929,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11386,8 +11968,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11419,8 +12007,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11452,8 +12046,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11485,8 +12085,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11518,8 +12124,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11548,11 +12160,17 @@
         <v>34016798.94383994</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11584,8 +12202,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11617,8 +12241,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11650,8 +12280,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11683,8 +12319,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11713,11 +12355,17 @@
         <v>34095624.60713995</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11746,11 +12394,17 @@
         <v>34077624.92463996</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11779,11 +12433,17 @@
         <v>34077624.92463996</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11812,11 +12472,17 @@
         <v>34078547.21793996</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11848,8 +12514,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11878,11 +12550,17 @@
         <v>34078547.21793996</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11911,11 +12589,17 @@
         <v>34070555.10973996</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11944,11 +12628,17 @@
         <v>34065748.76743996</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11977,11 +12667,17 @@
         <v>34058437.85333996</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12013,8 +12709,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12046,8 +12748,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12079,8 +12787,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12112,8 +12826,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12145,8 +12865,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12178,8 +12904,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12211,8 +12943,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12244,8 +12982,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12277,8 +13021,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12310,8 +13060,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12343,8 +13099,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12376,8 +13138,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12409,8 +13177,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12442,8 +13216,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12475,8 +13255,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12508,8 +13294,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12541,8 +13333,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12574,8 +13372,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12607,8 +13411,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12640,8 +13450,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12673,8 +13489,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12706,8 +13528,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12739,8 +13567,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12772,8 +13606,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12805,8 +13645,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12838,8 +13684,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12871,8 +13723,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12904,8 +13762,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12937,8 +13801,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12970,8 +13840,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13003,8 +13879,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13036,8 +13918,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13069,8 +13957,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13102,8 +13996,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13135,8 +14035,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13168,8 +14074,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13201,8 +14113,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13234,8 +14152,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13267,8 +14191,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13300,8 +14230,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13333,8 +14269,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13366,8 +14308,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13399,8 +14347,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13432,8 +14386,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13465,8 +14425,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13498,8 +14464,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13531,8 +14503,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13564,8 +14542,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13597,8 +14581,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13630,8 +14620,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13663,8 +14659,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13696,8 +14698,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13729,8 +14737,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13762,8 +14776,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13795,8 +14815,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13828,8 +14854,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13861,8 +14893,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13894,8 +14932,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13927,8 +14971,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13960,8 +15010,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13993,8 +15049,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14026,8 +15088,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14059,8 +15127,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14092,8 +15166,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14125,8 +15205,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14158,8 +15244,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14191,8 +15283,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14224,8 +15322,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14257,8 +15361,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14290,8 +15400,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14323,8 +15439,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14356,8 +15478,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14389,8 +15517,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14422,8 +15556,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14455,8 +15595,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14488,8 +15634,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14521,8 +15673,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14554,8 +15712,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14587,8 +15751,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14620,8 +15790,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14653,8 +15829,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14686,8 +15868,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14719,8 +15907,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14752,8 +15946,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14785,8 +15985,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14818,8 +16024,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14851,8 +16063,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14884,8 +16102,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14917,8 +16141,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14950,8 +16180,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14983,8 +16219,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15013,11 +16255,17 @@
         <v>34049198.19859795</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15046,11 +16294,17 @@
         <v>33647304.09249794</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15079,11 +16333,17 @@
         <v>34135973.82527447</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15115,8 +16375,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15145,11 +16411,17 @@
         <v>35487338.43071229</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15178,11 +16450,17 @@
         <v>33348246.78051229</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15211,11 +16489,17 @@
         <v>33526168.08281229</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15244,11 +16528,17 @@
         <v>33566765.40581229</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15277,11 +16567,17 @@
         <v>33548512.69511228</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15310,11 +16606,17 @@
         <v>33334323.79511229</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15343,11 +16645,17 @@
         <v>33334383.79511229</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15376,11 +16684,17 @@
         <v>33334383.79511229</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15409,11 +16723,17 @@
         <v>33295889.54141229</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15442,11 +16762,17 @@
         <v>33391220.53481229</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15475,11 +16801,17 @@
         <v>33232825.60401229</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15508,11 +16840,17 @@
         <v>32115337.95761229</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15541,11 +16879,17 @@
         <v>32115337.95761229</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15574,11 +16918,17 @@
         <v>31872514.21861229</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15607,11 +16957,17 @@
         <v>31896085.44911229</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15643,8 +16999,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15676,8 +17038,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15709,8 +17077,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15742,8 +17116,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15775,8 +17155,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15808,8 +17194,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15841,8 +17233,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15871,11 +17269,17 @@
         <v>31663534.62611229</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15907,8 +17311,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15937,11 +17347,17 @@
         <v>29534274.15071229</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15973,8 +17389,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16006,8 +17428,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16039,8 +17467,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16072,8 +17506,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16105,8 +17545,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16138,8 +17584,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16171,8 +17623,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16204,8 +17662,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16237,8 +17701,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16270,8 +17740,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16303,8 +17779,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16336,8 +17818,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16369,8 +17857,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16402,8 +17896,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16435,8 +17935,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16468,8 +17974,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16501,8 +18013,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16534,8 +18052,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16567,8 +18091,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16597,11 +18127,17 @@
         <v>28380201.48499333</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16633,8 +18169,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16663,11 +18205,17 @@
         <v>28278948.09749334</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16699,8 +18247,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16732,8 +18286,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16765,8 +18325,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16798,8 +18364,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16831,8 +18403,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16864,8 +18442,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16897,8 +18481,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16930,8 +18520,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16963,8 +18559,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16996,8 +18598,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17029,8 +18637,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17062,8 +18676,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17095,8 +18715,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17128,8 +18754,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17161,8 +18793,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17194,8 +18832,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17227,8 +18871,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17260,8 +18910,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17293,8 +18949,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17326,8 +18988,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17359,8 +19027,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17392,8 +19066,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17425,8 +19105,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17458,8 +19144,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17491,8 +19183,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17524,8 +19222,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17557,8 +19261,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17590,8 +19300,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17623,8 +19339,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17656,8 +19378,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17689,8 +19417,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17722,8 +19456,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17755,8 +19495,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17788,8 +19534,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17821,8 +19573,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17854,8 +19612,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17887,8 +19651,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17920,8 +19690,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17953,8 +19729,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17986,8 +19768,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18019,8 +19807,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18052,8 +19846,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18085,8 +19885,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18118,8 +19924,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18151,8 +19963,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18184,8 +20002,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18217,8 +20041,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18250,8 +20080,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18283,8 +20119,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18316,8 +20158,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18349,8 +20197,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18382,8 +20236,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18415,8 +20275,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18448,8 +20314,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18481,8 +20353,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18514,8 +20392,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18547,8 +20431,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18580,8 +20470,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18613,8 +20509,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18646,8 +20548,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18679,8 +20587,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18712,8 +20626,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18745,8 +20665,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18778,8 +20704,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18811,8 +20743,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18844,8 +20782,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18877,8 +20821,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18910,8 +20860,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18943,8 +20899,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18973,11 +20935,17 @@
         <v>32050904.18142883</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19006,11 +20974,17 @@
         <v>29985470.10730452</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19039,11 +21013,17 @@
         <v>30169606.76802414</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19072,11 +21052,17 @@
         <v>31810551.54285521</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19105,11 +21091,17 @@
         <v>34359780.11627796</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19138,11 +21130,17 @@
         <v>36350001.77018021</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19171,11 +21169,17 @@
         <v>37391621.26718021</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19204,11 +21208,17 @@
         <v>37003793.52238021</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19237,11 +21247,17 @@
         <v>37084447.98398021</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19270,11 +21286,17 @@
         <v>36220102.46348021</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19303,11 +21325,17 @@
         <v>37016679.37908021</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19336,11 +21364,17 @@
         <v>35805157.29338022</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19369,11 +21403,17 @@
         <v>35860220.27228022</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19402,11 +21442,17 @@
         <v>35682567.45678022</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19435,11 +21481,17 @@
         <v>39091270.94360806</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19471,8 +21523,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19501,11 +21559,17 @@
         <v>42423358.81940806</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19534,11 +21598,17 @@
         <v>42423358.81940806</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19567,11 +21637,17 @@
         <v>53528227.44710806</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19600,11 +21676,17 @@
         <v>52336095.79579247</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19633,11 +21715,17 @@
         <v>48890805.58779247</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19666,11 +21754,17 @@
         <v>46297504.35739248</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19699,11 +21793,17 @@
         <v>45326254.50309248</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19732,11 +21832,17 @@
         <v>47277107.5783556</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19768,8 +21874,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19801,8 +21913,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19834,8 +21952,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19867,8 +21991,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19900,8 +22030,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19933,8 +22069,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19966,8 +22108,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19996,15 +22144,23 @@
         <v>47978673.49012634</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L555" t="n">
-        <v>1</v>
-      </c>
-      <c r="M555" t="inlineStr"/>
+        <v>1.369269005847953</v>
+      </c>
+      <c r="M555" t="n">
+        <v>1.025073746312684</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -20194,7 +22350,7 @@
         <v>42979830.40410506</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20227,7 +22383,7 @@
         <v>42379622.36850506</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20260,7 +22416,7 @@
         <v>42347643.15390506</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20293,7 +22449,7 @@
         <v>42876547.69880506</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20326,7 +22482,7 @@
         <v>43427209.25130507</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20359,7 +22515,7 @@
         <v>43097965.05970506</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20392,7 +22548,7 @@
         <v>43210172.22770506</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20425,7 +22581,7 @@
         <v>37776606.17990506</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20458,7 +22614,7 @@
         <v>34244816.60650507</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20491,7 +22647,7 @@
         <v>35458752.1104002</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20524,7 +22680,7 @@
         <v>36284657.78286099</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20557,7 +22713,7 @@
         <v>34604431.57772525</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20590,7 +22746,7 @@
         <v>31835156.56302525</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20623,7 +22779,7 @@
         <v>32241494.87272765</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20656,7 +22812,7 @@
         <v>32241494.87272765</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20689,7 +22845,7 @@
         <v>31812006.14512765</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20722,7 +22878,7 @@
         <v>33339916.42383701</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20755,7 +22911,7 @@
         <v>33339916.42383701</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20788,7 +22944,7 @@
         <v>32649309.51234637</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20821,7 +22977,7 @@
         <v>34398512.32094637</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20854,7 +23010,7 @@
         <v>35504423.32614636</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20887,7 +23043,7 @@
         <v>34968834.11864636</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20920,7 +23076,7 @@
         <v>35022509.97164636</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20986,7 +23142,7 @@
         <v>34789804.63934636</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21019,7 +23175,7 @@
         <v>34789804.63934636</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21052,7 +23208,7 @@
         <v>34967638.32514636</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21085,7 +23241,7 @@
         <v>35098763.74314636</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21118,7 +23274,7 @@
         <v>35221384.08678805</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21151,7 +23307,7 @@
         <v>34910050.53158805</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21184,7 +23340,7 @@
         <v>33410056.88588805</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21283,7 +23439,7 @@
         <v>33488546.24128805</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22900,7 +25056,7 @@
         <v>33127822.72629759</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22966,7 +25122,7 @@
         <v>33158658.2263976</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23032,7 +25188,7 @@
         <v>33229216.64069759</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23164,7 +25320,7 @@
         <v>32738620.51942727</v>
       </c>
       <c r="H651" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23230,7 +25386,7 @@
         <v>33034927.98267421</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23263,7 +25419,7 @@
         <v>32889590.33610128</v>
       </c>
       <c r="H654" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23296,7 +25452,7 @@
         <v>33033712.02717425</v>
       </c>
       <c r="H655" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23329,7 +25485,7 @@
         <v>33018712.02717425</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23362,7 +25518,7 @@
         <v>33028343.30287425</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23395,7 +25551,7 @@
         <v>33025843.30287425</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23428,7 +25584,7 @@
         <v>33025843.30287425</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23494,7 +25650,7 @@
         <v>32969834.46217425</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23527,7 +25683,7 @@
         <v>32969890.62047425</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23560,7 +25716,7 @@
         <v>32969968.39047425</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23593,7 +25749,7 @@
         <v>32969968.39047425</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23626,7 +25782,7 @@
         <v>32969968.39047425</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23659,7 +25815,7 @@
         <v>33047864.00917425</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23692,7 +25848,7 @@
         <v>33047864.00917425</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23725,7 +25881,7 @@
         <v>33047864.00917425</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23758,7 +25914,7 @@
         <v>32992064.47767425</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23791,7 +25947,7 @@
         <v>36346933.1264106</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23824,7 +25980,7 @@
         <v>36764078.1880106</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23857,7 +26013,7 @@
         <v>36336139.27411059</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23890,7 +26046,7 @@
         <v>36336578.27411059</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23923,7 +26079,7 @@
         <v>36811715.8777106</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23956,7 +26112,7 @@
         <v>36782490.52281059</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23989,7 +26145,7 @@
         <v>37037391.6097106</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24022,7 +26178,7 @@
         <v>36874427.90351059</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24055,7 +26211,7 @@
         <v>36838803.9772106</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24088,7 +26244,7 @@
         <v>36862975.74121059</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24121,7 +26277,7 @@
         <v>37092230.09971059</v>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24154,7 +26310,7 @@
         <v>37375400.53446107</v>
       </c>
       <c r="H681" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24187,7 +26343,7 @@
         <v>37375400.53446107</v>
       </c>
       <c r="H682" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24220,7 +26376,7 @@
         <v>37434035.55126107</v>
       </c>
       <c r="H683" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24253,7 +26409,7 @@
         <v>37433693.98076107</v>
       </c>
       <c r="H684" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24286,7 +26442,7 @@
         <v>37433638.98076107</v>
       </c>
       <c r="H685" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24319,7 +26475,7 @@
         <v>37384979.79576107</v>
       </c>
       <c r="H686" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24352,7 +26508,7 @@
         <v>37402589.79576107</v>
       </c>
       <c r="H687" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24385,7 +26541,7 @@
         <v>37368636.34676107</v>
       </c>
       <c r="H688" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24418,7 +26574,7 @@
         <v>37386636.34676107</v>
       </c>
       <c r="H689" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24451,7 +26607,7 @@
         <v>38457900.46385925</v>
       </c>
       <c r="H690" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24550,7 +26706,7 @@
         <v>37541841.48895925</v>
       </c>
       <c r="H693" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24583,7 +26739,7 @@
         <v>37541841.48895925</v>
       </c>
       <c r="H694" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -27520,7 +29676,7 @@
         <v>31655498.92362532</v>
       </c>
       <c r="H783" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -28081,7 +30237,7 @@
         <v>31302175.32379543</v>
       </c>
       <c r="H800" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -28114,7 +30270,7 @@
         <v>30952529.55189544</v>
       </c>
       <c r="H801" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -28147,7 +30303,7 @@
         <v>31117521.20649543</v>
       </c>
       <c r="H802" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -28180,7 +30336,7 @@
         <v>30724538.68259544</v>
       </c>
       <c r="H803" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -28213,7 +30369,7 @@
         <v>30724349.84349544</v>
       </c>
       <c r="H804" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -28246,7 +30402,7 @@
         <v>30724349.84349544</v>
       </c>
       <c r="H805" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -28279,7 +30435,7 @@
         <v>30724349.84349544</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -28312,7 +30468,7 @@
         <v>30755391.05819543</v>
       </c>
       <c r="H807" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -28345,7 +30501,7 @@
         <v>30670672.95859544</v>
       </c>
       <c r="H808" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -28378,7 +30534,7 @@
         <v>30673850.11759544</v>
       </c>
       <c r="H809" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -28411,7 +30567,7 @@
         <v>30456178.51689544</v>
       </c>
       <c r="H810" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -28444,7 +30600,7 @@
         <v>30456178.51689544</v>
       </c>
       <c r="H811" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -29434,7 +31590,7 @@
         <v>29424949.82833166</v>
       </c>
       <c r="H841" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -31810,7 +33966,7 @@
         <v>25724696.857519</v>
       </c>
       <c r="H913" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -31843,7 +33999,7 @@
         <v>25737347.182319</v>
       </c>
       <c r="H914" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -31876,7 +34032,7 @@
         <v>25737347.182319</v>
       </c>
       <c r="H915" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -31909,7 +34065,7 @@
         <v>26072423.580519</v>
       </c>
       <c r="H916" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -31942,7 +34098,7 @@
         <v>26385924.503019</v>
       </c>
       <c r="H917" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -31975,7 +34131,7 @@
         <v>28597022.371919</v>
       </c>
       <c r="H918" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -32008,7 +34164,7 @@
         <v>28388891.486919</v>
       </c>
       <c r="H919" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -32041,7 +34197,7 @@
         <v>28388891.486919</v>
       </c>
       <c r="H920" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -32074,7 +34230,7 @@
         <v>27339976.901719</v>
       </c>
       <c r="H921" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -32107,7 +34263,7 @@
         <v>27336930.869319</v>
       </c>
       <c r="H922" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -32140,7 +34296,7 @@
         <v>27336930.869319</v>
       </c>
       <c r="H923" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -32173,7 +34329,7 @@
         <v>27329382.030419</v>
       </c>
       <c r="H924" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -32206,7 +34362,7 @@
         <v>27424873.26443742</v>
       </c>
       <c r="H925" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -32239,7 +34395,7 @@
         <v>27424873.26443742</v>
       </c>
       <c r="H926" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -32272,7 +34428,7 @@
         <v>27425176.81213742</v>
       </c>
       <c r="H927" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -32305,7 +34461,7 @@
         <v>27425176.81213742</v>
       </c>
       <c r="H928" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -32338,7 +34494,7 @@
         <v>27425176.81213742</v>
       </c>
       <c r="H929" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -32371,7 +34527,7 @@
         <v>28490625.40563742</v>
       </c>
       <c r="H930" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -32404,7 +34560,7 @@
         <v>29215775.49113742</v>
       </c>
       <c r="H931" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -32437,7 +34593,7 @@
         <v>29215775.49113742</v>
       </c>
       <c r="H932" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -32470,7 +34626,7 @@
         <v>29179256.01493742</v>
       </c>
       <c r="H933" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -32503,7 +34659,7 @@
         <v>29517079.07763742</v>
       </c>
       <c r="H934" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -32536,7 +34692,7 @@
         <v>29799592.09283742</v>
       </c>
       <c r="H935" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -32569,7 +34725,7 @@
         <v>29155630.05923742</v>
       </c>
       <c r="H936" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -32602,7 +34758,7 @@
         <v>28887586.25273742</v>
       </c>
       <c r="H937" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -32635,7 +34791,7 @@
         <v>29041017.60513742</v>
       </c>
       <c r="H938" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -34021,7 +36177,7 @@
         <v>43075568.15107372</v>
       </c>
       <c r="H980" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -34054,7 +36210,7 @@
         <v>45451923.56567372</v>
       </c>
       <c r="H981" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -34087,7 +36243,7 @@
         <v>41887928.33941447</v>
       </c>
       <c r="H982" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34120,7 +36276,7 @@
         <v>41887928.33941447</v>
       </c>
       <c r="H983" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34153,7 +36309,7 @@
         <v>43201860.25441296</v>
       </c>
       <c r="H984" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -34186,7 +36342,7 @@
         <v>42554448.78088313</v>
       </c>
       <c r="H985" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -34219,7 +36375,7 @@
         <v>46570525.67493524</v>
       </c>
       <c r="H986" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34252,7 +36408,7 @@
         <v>46570525.67493524</v>
       </c>
       <c r="H987" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34285,7 +36441,7 @@
         <v>49980643.14143524</v>
       </c>
       <c r="H988" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34318,7 +36474,7 @@
         <v>45119248.90830629</v>
       </c>
       <c r="H989" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34351,7 +36507,7 @@
         <v>40170196.65268787</v>
       </c>
       <c r="H990" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34384,7 +36540,7 @@
         <v>40170196.65268787</v>
       </c>
       <c r="H991" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34417,7 +36573,7 @@
         <v>41886343.61568787</v>
       </c>
       <c r="H992" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34450,7 +36606,7 @@
         <v>43367836.76931728</v>
       </c>
       <c r="H993" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34483,7 +36639,7 @@
         <v>45060682.99879435</v>
       </c>
       <c r="H994" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -34516,7 +36672,7 @@
         <v>47132220.56005274</v>
       </c>
       <c r="H995" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -34549,7 +36705,7 @@
         <v>45854383.79195274</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -34582,7 +36738,7 @@
         <v>43067637.79185273</v>
       </c>
       <c r="H997" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -34615,7 +36771,7 @@
         <v>47231975.2220329</v>
       </c>
       <c r="H998" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -34648,7 +36804,7 @@
         <v>48006112.18292823</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -34681,7 +36837,7 @@
         <v>47002013.51484521</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -34714,7 +36870,7 @@
         <v>45042082.19524521</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -34747,7 +36903,7 @@
         <v>46925336.34040579</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -34780,7 +36936,7 @@
         <v>44851521.79230579</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -34813,7 +36969,7 @@
         <v>45675035.28350579</v>
       </c>
       <c r="H1004" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -34846,7 +37002,7 @@
         <v>44365340.28219428</v>
       </c>
       <c r="H1005" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -34879,7 +37035,7 @@
         <v>42621231.26779428</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -34912,7 +37068,7 @@
         <v>40661037.73909428</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -34945,7 +37101,7 @@
         <v>39356977.85109428</v>
       </c>
       <c r="H1008" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -34978,7 +37134,7 @@
         <v>40968735.45659428</v>
       </c>
       <c r="H1009" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -35011,7 +37167,7 @@
         <v>39518007.28549428</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -35044,7 +37200,7 @@
         <v>38916440.28029428</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -35077,7 +37233,7 @@
         <v>37430442.01949429</v>
       </c>
       <c r="H1012" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -35110,7 +37266,7 @@
         <v>36849826.52692538</v>
       </c>
       <c r="H1013" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -35143,7 +37299,7 @@
         <v>37540618.45352538</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -35176,7 +37332,7 @@
         <v>38034073.26582538</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -35209,7 +37365,7 @@
         <v>38034073.26582538</v>
       </c>
       <c r="H1016" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -35242,7 +37398,7 @@
         <v>38010042.91908327</v>
       </c>
       <c r="H1017" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -35275,7 +37431,7 @@
         <v>38902288.26138327</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -35308,7 +37464,7 @@
         <v>38902288.26138327</v>
       </c>
       <c r="H1019" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -35341,7 +37497,7 @@
         <v>38902288.26138327</v>
       </c>
       <c r="H1020" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -35374,7 +37530,7 @@
         <v>38776317.61212537</v>
       </c>
       <c r="H1021" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -35407,7 +37563,7 @@
         <v>38776317.61212537</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -35440,7 +37596,7 @@
         <v>39475063.26282537</v>
       </c>
       <c r="H1023" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -35473,7 +37629,7 @@
         <v>39624126.54322537</v>
       </c>
       <c r="H1024" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -35506,7 +37662,7 @@
         <v>39624126.54322537</v>
       </c>
       <c r="H1025" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -35539,7 +37695,7 @@
         <v>39405592.97012537</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -35572,7 +37728,7 @@
         <v>39561633.04322537</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -35605,7 +37761,7 @@
         <v>40654396.75822537</v>
       </c>
       <c r="H1028" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -35638,7 +37794,7 @@
         <v>40303437.37092537</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -35671,7 +37827,7 @@
         <v>40419408.46852537</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -35737,7 +37893,7 @@
         <v>40014350.76852538</v>
       </c>
       <c r="H1032" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -35803,7 +37959,7 @@
         <v>39219696.21842538</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -35836,7 +37992,7 @@
         <v>38986206.21952538</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -35869,7 +38025,7 @@
         <v>37722012.59162538</v>
       </c>
       <c r="H1036" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -35902,7 +38058,7 @@
         <v>36723751.33432539</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -35935,7 +38091,7 @@
         <v>37138518.95266266</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -35968,7 +38124,7 @@
         <v>36440217.05306266</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -36001,7 +38157,7 @@
         <v>37022629.28456266</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -36034,7 +38190,7 @@
         <v>37022629.28456266</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -36067,7 +38223,7 @@
         <v>37022629.28456266</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -36100,7 +38256,7 @@
         <v>37022683.28456266</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -36133,7 +38289,7 @@
         <v>36794258.43336266</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -36166,7 +38322,7 @@
         <v>36856086.56666266</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -36199,7 +38355,7 @@
         <v>36396674.51606266</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -36232,7 +38388,7 @@
         <v>32119565.90256266</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -36265,7 +38421,7 @@
         <v>29217188.15076266</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -36298,7 +38454,7 @@
         <v>30123296.98446266</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -36331,7 +38487,7 @@
         <v>30123296.98446266</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -36364,7 +38520,7 @@
         <v>30450480.51946266</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -36397,7 +38553,7 @@
         <v>30468602.65406266</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -36463,7 +38619,7 @@
         <v>30315068.40856266</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -36496,7 +38652,7 @@
         <v>27762526.47276266</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -36529,7 +38685,7 @@
         <v>29934334.22456266</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -36562,7 +38718,7 @@
         <v>27787881.84706266</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -36595,7 +38751,7 @@
         <v>25420060.14816266</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -36628,7 +38784,7 @@
         <v>25565921.59186266</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -36661,7 +38817,7 @@
         <v>25897427.32446266</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -41094,6 +43250,6 @@
       <c r="M1194" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest FZZ.xlsx
+++ b/BackTest/2019-11-13 BackTest FZZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2038,11 +2038,9 @@
         <v>3556730.988041898</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>7.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>6.84</v>
       </c>
@@ -2202,11 +2200,9 @@
         <v>3273571.925441898</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>7.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>6.84</v>
       </c>
@@ -2776,11 +2772,9 @@
         <v>2843370.008950887</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>7.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>6.84</v>
       </c>
@@ -2817,11 +2811,9 @@
         <v>2941291.961950887</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>7.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>6.84</v>
       </c>
@@ -2858,11 +2850,9 @@
         <v>5468842.174796822</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>7.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>6.84</v>
       </c>
@@ -2899,11 +2889,9 @@
         <v>5468842.174796822</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>7.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>6.84</v>
       </c>
@@ -2940,11 +2928,9 @@
         <v>5468842.174796822</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>7.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>6.84</v>
       </c>
@@ -2981,11 +2967,9 @@
         <v>5356124.986796821</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>7.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>6.84</v>
       </c>
@@ -3022,11 +3006,9 @@
         <v>5499556.720396821</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>7.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>6.84</v>
       </c>
@@ -3063,11 +3045,9 @@
         <v>6310591.494396822</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>7.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>6.84</v>
       </c>
@@ -3104,11 +3084,9 @@
         <v>9511544.083829161</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>7.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>6.84</v>
       </c>
@@ -3301,11 +3279,9 @@
         <v>12856424.70113253</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>7.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>6.84</v>
       </c>
@@ -3342,11 +3318,9 @@
         <v>13377191.27123253</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>7.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>6.84</v>
       </c>
@@ -3383,11 +3357,9 @@
         <v>13570666.25408022</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>7.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>6.84</v>
       </c>
@@ -5647,7 +5619,7 @@
         <v>23664377.87232426</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
@@ -5655,13 +5627,15 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>1.281549707602339</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1.025073746312684</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5686,17 +5660,11 @@
         <v>27670128.25092426</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5725,17 +5693,11 @@
         <v>27670128.25092426</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5764,17 +5726,11 @@
         <v>27862796.75662426</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5803,17 +5759,11 @@
         <v>28003297.28917997</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5842,17 +5792,11 @@
         <v>30645245.35092426</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5881,17 +5825,11 @@
         <v>32649137.66232426</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5920,17 +5858,11 @@
         <v>32069521.69340908</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5959,17 +5891,11 @@
         <v>32982324.44980908</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5998,17 +5924,11 @@
         <v>33633561.85930908</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6037,17 +5957,11 @@
         <v>33625944.42360908</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6076,17 +5990,11 @@
         <v>33129424.02600908</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6115,17 +6023,11 @@
         <v>33453963.80780908</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6154,17 +6056,11 @@
         <v>32681330.36780908</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6193,17 +6089,11 @@
         <v>32472492.35380908</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6235,14 +6125,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6271,17 +6155,11 @@
         <v>32414782.67500908</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6310,17 +6188,11 @@
         <v>32203372.65100908</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6349,17 +6221,11 @@
         <v>31749766.31790908</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6388,17 +6254,11 @@
         <v>31774195.19868793</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6427,17 +6287,11 @@
         <v>31578338.80538793</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6466,17 +6320,11 @@
         <v>31757164.10068792</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6505,17 +6353,11 @@
         <v>31757164.10068792</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6544,17 +6386,11 @@
         <v>31757164.10068792</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6583,17 +6419,11 @@
         <v>31828865.77808793</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6622,17 +6452,11 @@
         <v>31819626.52978792</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6661,17 +6485,11 @@
         <v>31819626.52978792</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6700,17 +6518,11 @@
         <v>32162517.25978792</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6739,17 +6551,11 @@
         <v>31224630.76568792</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6778,17 +6584,11 @@
         <v>30977168.27638792</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6817,17 +6617,11 @@
         <v>31754856.04018792</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6856,17 +6650,11 @@
         <v>31796794.49108792</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6895,17 +6683,11 @@
         <v>31765957.49108792</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6934,17 +6716,11 @@
         <v>31938109.39078792</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6973,17 +6749,11 @@
         <v>31924637.07418792</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -7012,17 +6782,11 @@
         <v>31865395.57058792</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7054,14 +6818,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7093,14 +6851,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7132,14 +6884,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7171,14 +6917,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7210,14 +6950,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7249,14 +6983,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7288,14 +7016,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7327,14 +7049,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7366,14 +7082,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7405,14 +7115,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7444,14 +7148,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7483,14 +7181,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7522,14 +7214,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7561,14 +7247,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7600,14 +7280,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7639,14 +7313,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7678,14 +7346,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7717,14 +7379,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7756,14 +7412,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7795,14 +7445,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7834,14 +7478,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7873,14 +7511,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7912,14 +7544,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7951,14 +7577,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7990,14 +7610,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8029,14 +7643,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8068,14 +7676,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8107,14 +7709,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8146,14 +7742,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8185,14 +7775,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8224,14 +7808,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8263,14 +7841,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8302,14 +7874,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8341,14 +7907,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8380,14 +7940,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8419,14 +7973,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8458,14 +8006,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8497,14 +8039,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8536,14 +8072,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8575,14 +8105,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8614,14 +8138,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8653,14 +8171,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8692,14 +8204,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8731,14 +8237,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8770,14 +8270,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8809,14 +8303,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8848,14 +8336,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8887,14 +8369,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8926,14 +8402,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8965,14 +8435,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -9004,14 +8468,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9043,14 +8501,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9082,14 +8534,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9121,14 +8567,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9160,14 +8600,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9199,14 +8633,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9238,14 +8666,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9277,14 +8699,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9316,14 +8732,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9355,14 +8765,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9394,14 +8798,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9433,14 +8831,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9472,14 +8864,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9511,14 +8897,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9550,14 +8930,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9589,14 +8963,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9628,14 +8996,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9667,14 +9029,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9706,14 +9062,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9745,14 +9095,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9784,14 +9128,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9823,14 +9161,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9862,14 +9194,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9901,14 +9227,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9940,14 +9260,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9979,14 +9293,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10018,14 +9326,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10057,14 +9359,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10096,14 +9392,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10135,14 +9425,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10174,14 +9458,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10213,14 +9491,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10252,14 +9524,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10291,14 +9557,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10330,14 +9590,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10369,14 +9623,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10408,14 +9656,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10447,14 +9689,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10486,14 +9722,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10525,14 +9755,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10564,14 +9788,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10603,14 +9821,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10642,14 +9854,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10681,14 +9887,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10720,14 +9920,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10759,14 +9953,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10798,14 +9986,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10837,14 +10019,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10876,14 +10052,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10915,14 +10085,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10954,14 +10118,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10993,14 +10151,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11032,14 +10184,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11071,14 +10217,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11110,14 +10250,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11149,14 +10283,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11188,14 +10316,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11227,14 +10349,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11266,14 +10382,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11305,14 +10415,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11344,14 +10448,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11383,14 +10481,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11422,14 +10514,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11461,14 +10547,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11500,14 +10580,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11539,14 +10613,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11578,14 +10646,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11617,14 +10679,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11656,14 +10712,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11695,14 +10745,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11734,14 +10778,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11773,14 +10811,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11812,14 +10844,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11851,14 +10877,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11890,14 +10910,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11929,14 +10943,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11968,14 +10976,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -12007,14 +11009,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12046,14 +11042,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12085,14 +11075,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12124,14 +11108,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12163,14 +11141,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12202,14 +11174,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12241,14 +11207,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12280,14 +11240,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12319,14 +11273,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12358,14 +11306,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12397,14 +11339,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12436,14 +11372,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12475,14 +11405,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12514,14 +11438,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12553,14 +11471,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12592,14 +11504,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12631,14 +11537,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12670,14 +11570,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12709,14 +11603,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12748,14 +11636,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12787,14 +11669,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12826,14 +11702,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12865,14 +11735,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12904,14 +11768,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12943,14 +11801,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12982,14 +11834,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -13021,14 +11867,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13060,14 +11900,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13099,14 +11933,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13138,14 +11966,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13177,14 +11999,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13216,14 +12032,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13255,14 +12065,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13294,14 +12098,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13333,14 +12131,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13372,14 +12164,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13411,14 +12197,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13450,14 +12230,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13489,14 +12263,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13528,14 +12296,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13567,14 +12329,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13606,14 +12362,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13645,14 +12395,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13684,14 +12428,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13723,14 +12461,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13762,14 +12494,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13801,14 +12527,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13840,14 +12560,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13879,14 +12593,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13918,14 +12626,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13957,14 +12659,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13996,14 +12692,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -14035,14 +12725,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14074,14 +12758,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14113,14 +12791,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14152,14 +12824,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14191,14 +12857,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14230,14 +12890,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14269,14 +12923,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14308,14 +12956,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14347,14 +12989,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14386,14 +13022,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14425,14 +13055,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14464,14 +13088,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14503,14 +13121,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14542,14 +13154,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14581,14 +13187,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14620,14 +13220,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14659,14 +13253,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14698,14 +13286,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14737,14 +13319,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14776,14 +13352,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14815,14 +13385,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14854,14 +13418,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14893,14 +13451,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14932,14 +13484,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14971,14 +13517,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -15010,14 +13550,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -15049,14 +13583,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15088,14 +13616,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15127,14 +13649,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15166,14 +13682,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15205,14 +13715,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15244,14 +13748,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15283,14 +13781,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15322,14 +13814,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15361,14 +13847,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15400,14 +13880,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15439,14 +13913,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15478,14 +13946,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15517,14 +13979,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15556,14 +14012,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15595,14 +14045,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15634,14 +14078,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15673,14 +14111,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15712,14 +14144,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15751,14 +14177,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15790,14 +14210,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15829,14 +14243,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15868,14 +14276,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15907,14 +14309,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15946,14 +14342,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15985,14 +14375,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -16024,14 +14408,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -16063,14 +14441,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16102,14 +14474,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16141,14 +14507,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16180,14 +14540,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16219,14 +14573,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16258,14 +14606,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16297,14 +14639,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16336,14 +14672,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16375,14 +14705,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16414,14 +14738,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16453,14 +14771,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16492,14 +14804,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16531,14 +14837,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16570,14 +14870,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16609,14 +14903,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16648,14 +14936,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16687,14 +14969,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16726,14 +15002,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16765,14 +15035,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16804,14 +15068,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16843,14 +15101,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16882,14 +15134,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16921,14 +15167,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16960,14 +15200,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16999,14 +15233,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -17038,14 +15266,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -17077,14 +15299,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -17116,14 +15332,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -17155,14 +15365,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17194,14 +15398,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17233,14 +15431,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17272,14 +15464,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17311,14 +15497,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17350,14 +15530,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17389,14 +15563,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17428,14 +15596,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17467,14 +15629,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17506,14 +15662,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17545,14 +15695,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17584,14 +15728,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17623,14 +15761,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17662,14 +15794,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17701,14 +15827,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17740,14 +15860,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17779,14 +15893,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17818,14 +15926,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17857,14 +15959,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17896,14 +15992,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17935,14 +16025,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17974,14 +16058,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -18013,14 +16091,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -18052,14 +16124,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -18091,14 +16157,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -18130,14 +16190,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -18169,14 +16223,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18208,14 +16256,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18247,14 +16289,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18286,14 +16322,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18325,14 +16355,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18364,14 +16388,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18403,14 +16421,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18442,14 +16454,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18481,14 +16487,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18520,14 +16520,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18559,14 +16553,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18598,14 +16586,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18637,14 +16619,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18676,14 +16652,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18715,14 +16685,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18754,14 +16718,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18793,14 +16751,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18832,14 +16784,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18871,14 +16817,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18910,14 +16850,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18949,14 +16883,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18988,14 +16916,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -19027,14 +16949,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -19066,14 +16982,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -19105,14 +17015,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -19144,14 +17048,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -19183,14 +17081,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -19222,14 +17114,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19261,14 +17147,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19300,14 +17180,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19339,14 +17213,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19378,14 +17246,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19417,14 +17279,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19456,14 +17312,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19495,14 +17345,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19534,14 +17378,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19573,14 +17411,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19612,14 +17444,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19651,14 +17477,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19690,14 +17510,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19729,14 +17543,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19768,14 +17576,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19807,14 +17609,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19846,14 +17642,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19885,14 +17675,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19924,14 +17708,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19963,14 +17741,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -20002,14 +17774,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -20041,14 +17807,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -20080,14 +17840,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -20119,14 +17873,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -20158,14 +17906,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -20197,14 +17939,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -20236,14 +17972,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -20275,14 +18005,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -20314,14 +18038,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -20353,14 +18071,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -20392,14 +18104,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -20431,14 +18137,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -20470,14 +18170,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -20509,14 +18203,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -20548,14 +18236,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20587,14 +18269,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20626,14 +18302,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20665,14 +18335,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20704,14 +18368,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20743,14 +18401,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20782,14 +18434,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20821,14 +18467,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20860,14 +18500,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20899,14 +18533,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20938,14 +18566,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20977,14 +18599,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -21016,14 +18632,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -21055,14 +18665,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -21094,14 +18698,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -21133,14 +18731,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -21172,14 +18764,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -21211,14 +18797,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -21250,14 +18830,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -21289,14 +18863,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -21328,14 +18896,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -21367,14 +18929,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -21406,14 +18962,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -21445,14 +18995,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -21484,14 +19028,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -21523,14 +19061,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -21562,14 +19094,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -21601,14 +19127,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -21640,14 +19160,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -21679,14 +19193,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -21718,14 +19226,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -21757,14 +19259,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -21796,14 +19292,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -21835,14 +19325,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -21874,14 +19358,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -21913,14 +19391,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -21952,14 +19424,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -21991,14 +19457,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -22030,14 +19490,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -22069,14 +19523,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -22108,14 +19556,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -22144,23 +19586,15 @@
         <v>47978673.49012634</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
-        <v>1.369269005847953</v>
-      </c>
-      <c r="M555" t="n">
-        <v>1.025073746312684</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -22350,7 +19784,7 @@
         <v>42979830.40410506</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -22383,7 +19817,7 @@
         <v>42379622.36850506</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -22416,7 +19850,7 @@
         <v>42347643.15390506</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -22449,7 +19883,7 @@
         <v>42876547.69880506</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -22482,7 +19916,7 @@
         <v>43427209.25130507</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -22515,7 +19949,7 @@
         <v>43097965.05970506</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -22548,7 +19982,7 @@
         <v>43210172.22770506</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -22581,7 +20015,7 @@
         <v>37776606.17990506</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -22614,7 +20048,7 @@
         <v>34244816.60650507</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -22647,7 +20081,7 @@
         <v>35458752.1104002</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -22680,7 +20114,7 @@
         <v>36284657.78286099</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -22713,7 +20147,7 @@
         <v>34604431.57772525</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -22746,7 +20180,7 @@
         <v>31835156.56302525</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -22779,7 +20213,7 @@
         <v>32241494.87272765</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -22812,7 +20246,7 @@
         <v>32241494.87272765</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -22845,7 +20279,7 @@
         <v>31812006.14512765</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -22878,7 +20312,7 @@
         <v>33339916.42383701</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22911,7 +20345,7 @@
         <v>33339916.42383701</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -22944,7 +20378,7 @@
         <v>32649309.51234637</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22977,7 +20411,7 @@
         <v>34398512.32094637</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -23010,7 +20444,7 @@
         <v>35504423.32614636</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -23043,7 +20477,7 @@
         <v>34968834.11864636</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -23076,7 +20510,7 @@
         <v>35022509.97164636</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -23142,7 +20576,7 @@
         <v>34789804.63934636</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -23175,7 +20609,7 @@
         <v>34789804.63934636</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -23208,7 +20642,7 @@
         <v>34967638.32514636</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -23241,7 +20675,7 @@
         <v>35098763.74314636</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -23274,7 +20708,7 @@
         <v>35221384.08678805</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -23307,7 +20741,7 @@
         <v>34910050.53158805</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -23340,7 +20774,7 @@
         <v>33410056.88588805</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -23439,7 +20873,7 @@
         <v>33488546.24128805</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -36672,7 +34106,7 @@
         <v>47132220.56005274</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -36705,7 +34139,7 @@
         <v>45854383.79195274</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -36738,7 +34172,7 @@
         <v>43067637.79185273</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -36771,7 +34205,7 @@
         <v>47231975.2220329</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -36804,7 +34238,7 @@
         <v>48006112.18292823</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -36837,7 +34271,7 @@
         <v>47002013.51484521</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -36870,7 +34304,7 @@
         <v>45042082.19524521</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -36903,7 +34337,7 @@
         <v>46925336.34040579</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -36936,7 +34370,7 @@
         <v>44851521.79230579</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -36969,7 +34403,7 @@
         <v>45675035.28350579</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -37002,7 +34436,7 @@
         <v>44365340.28219428</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -37035,7 +34469,7 @@
         <v>42621231.26779428</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -37068,7 +34502,7 @@
         <v>40661037.73909428</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -37101,7 +34535,7 @@
         <v>39356977.85109428</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -37134,7 +34568,7 @@
         <v>40968735.45659428</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -37167,7 +34601,7 @@
         <v>39518007.28549428</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -37200,7 +34634,7 @@
         <v>38916440.28029428</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -37233,7 +34667,7 @@
         <v>37430442.01949429</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -37266,7 +34700,7 @@
         <v>36849826.52692538</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -37299,7 +34733,7 @@
         <v>37540618.45352538</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -37332,7 +34766,7 @@
         <v>38034073.26582538</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -37365,7 +34799,7 @@
         <v>38034073.26582538</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -37398,7 +34832,7 @@
         <v>38010042.91908327</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -37431,7 +34865,7 @@
         <v>38902288.26138327</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -37464,7 +34898,7 @@
         <v>38902288.26138327</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -37497,7 +34931,7 @@
         <v>38902288.26138327</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -37530,7 +34964,7 @@
         <v>38776317.61212537</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -37563,7 +34997,7 @@
         <v>38776317.61212537</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -37596,7 +35030,7 @@
         <v>39475063.26282537</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -37629,7 +35063,7 @@
         <v>39624126.54322537</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -37662,7 +35096,7 @@
         <v>39624126.54322537</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -37695,7 +35129,7 @@
         <v>39405592.97012537</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -37728,7 +35162,7 @@
         <v>39561633.04322537</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -37761,7 +35195,7 @@
         <v>40654396.75822537</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -37794,7 +35228,7 @@
         <v>40303437.37092537</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -37827,7 +35261,7 @@
         <v>40419408.46852537</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -37893,7 +35327,7 @@
         <v>40014350.76852538</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -37959,7 +35393,7 @@
         <v>39219696.21842538</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -37992,7 +35426,7 @@
         <v>38986206.21952538</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -38025,7 +35459,7 @@
         <v>37722012.59162538</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -38058,7 +35492,7 @@
         <v>36723751.33432539</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -38091,7 +35525,7 @@
         <v>37138518.95266266</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -38124,7 +35558,7 @@
         <v>36440217.05306266</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -38157,7 +35591,7 @@
         <v>37022629.28456266</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -38190,7 +35624,7 @@
         <v>37022629.28456266</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -38223,7 +35657,7 @@
         <v>37022629.28456266</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -38256,7 +35690,7 @@
         <v>37022683.28456266</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -38289,7 +35723,7 @@
         <v>36794258.43336266</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -38322,7 +35756,7 @@
         <v>36856086.56666266</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -38355,7 +35789,7 @@
         <v>36396674.51606266</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -38388,7 +35822,7 @@
         <v>32119565.90256266</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -38421,7 +35855,7 @@
         <v>29217188.15076266</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -38454,7 +35888,7 @@
         <v>30123296.98446266</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -38487,7 +35921,7 @@
         <v>30123296.98446266</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -38520,7 +35954,7 @@
         <v>30450480.51946266</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -38553,7 +35987,7 @@
         <v>30468602.65406266</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -38619,7 +36053,7 @@
         <v>30315068.40856266</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -38652,7 +36086,7 @@
         <v>27762526.47276266</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -38685,7 +36119,7 @@
         <v>29934334.22456266</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -38718,7 +36152,7 @@
         <v>27787881.84706266</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -38751,7 +36185,7 @@
         <v>25420060.14816266</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -38784,7 +36218,7 @@
         <v>25565921.59186266</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -38817,7 +36251,7 @@
         <v>25897427.32446266</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -43250,6 +40684,6 @@
       <c r="M1194" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>